--- a/biology/Botanique/Thymelaea/Thymelaea.xlsx
+++ b/biology/Botanique/Thymelaea/Thymelaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thymelaea est un genre d'environ 30 espèces d'arbustes sempervirents et de plantes herbacées de la famille des Thymelaeaceae, portant de petites fleurs allant du jaune au vert, unisexuées ou hermaphrodites, généralement sans corolle. Le fruit est une baie sèche, incluse dans le calice. Elles sont originaires des îles Canaries, des régions méditerranéennes, du nord de l’Europe centrale et de l’est de l’Asie centrale.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thymelaea viendrait de mots latin et grec (θυμελαια) désignant une plante à fruits laxatifs, peut-être Daphne gnidium[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thymelaea viendrait de mots latin et grec (θυμελαια) désignant une plante à fruits laxatifs, peut-être Daphne gnidium.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,7 +584,9 @@
           <t>Espèces répertoriées en France par Tela Botanica[2]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Thymelaea calycina (Lapeyr.) Meisn.
